--- a/Documentation/ProposalContentRobertDinhRev03.xlsx
+++ b/Documentation/ProposalContentRobertDinhRev03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B8CA7-AD4F-49AE-ABDE-0F872908C313}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC2B8C3-8975-48E3-B2FA-4B680DF4EA37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,8 +174,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -548,7 +550,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +564,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -646,11 +648,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -683,7 +685,7 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{028CC2AA-80A6-48A4-8FE9-51F3146313A6}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
